--- a/src/test/data/LoadCommandTest/duplicateFlashCardFile.xlsx
+++ b/src/test/data/LoadCommandTest/duplicateFlashCardFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiali_yu/Desktop/nus/Java/tp/src/test/data/LoadCommandTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E314C37-C96E-5F40-9B7F-6FF7674A1179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA75AC4-381A-3249-8FF7-AC691CEE4C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="1920" windowWidth="24640" windowHeight="13900" xr2:uid="{D38DD972-8ED7-8746-8A50-56729470588D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Amy</t>
   </si>
@@ -50,20 +50,29 @@
     <t>约翰</t>
   </si>
   <si>
-    <t>amy</t>
+    <t>爱丽丝·宝琳</t>
+  </si>
+  <si>
+    <t>Alice pauline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,12 +415,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -426,12 +436,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
